--- a/Completed Projects/Burhani Mehal/017 Quotation for Air conditioing workd Hall area Burhani mehal.xlsx
+++ b/Completed Projects/Burhani Mehal/017 Quotation for Air conditioing workd Hall area Burhani mehal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Completed Projects\Burhani Mehal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6AAD70-43BD-4197-A5F2-5817E876E4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4897BB74-AF36-48C4-9F15-7CB5E9C32F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,6 +534,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -557,9 +560,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1398,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,10 +1443,10 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="29"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -1454,10 +1454,10 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="32"/>
+      <c r="H14" s="33"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
@@ -1466,16 +1466,16 @@
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
@@ -1488,26 +1488,26 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
     </row>
     <row r="19" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
     </row>
     <row r="20" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:8" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="16">
-        <v>70000</v>
+        <v>7000</v>
       </c>
       <c r="G22" s="17">
         <f>E22*D22</f>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="H22" s="17">
         <f>F22*D22</f>
-        <v>210000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
@@ -1873,70 +1873,70 @@
       </c>
     </row>
     <row r="34" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="35">
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="27">
         <f>SUM(G22:G33)</f>
         <v>830200</v>
       </c>
-      <c r="H34" s="35">
+      <c r="H34" s="27">
         <f>SUM(H22:H33)</f>
-        <v>427000</v>
+        <v>238000</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
       <c r="G35" s="11">
         <v>0</v>
       </c>
       <c r="H35" s="11">
         <f>H34*15%</f>
-        <v>64050</v>
+        <v>35700</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
       <c r="G36" s="11">
         <f>G35+G34</f>
         <v>830200</v>
       </c>
       <c r="H36" s="11">
         <f>H35+H34</f>
-        <v>491050</v>
+        <v>273700</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="28">
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29">
         <f>G36+H36</f>
-        <v>1321250</v>
-      </c>
-      <c r="H37" s="28"/>
+        <v>1103900</v>
+      </c>
+      <c r="H37" s="29"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
@@ -2059,10 +2059,10 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="29"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:6" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -2070,24 +2070,24 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="32"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:6" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="1:6" ht="1.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
@@ -2098,22 +2098,22 @@
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:6" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -2271,13 +2271,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="35"/>
       <c r="F31" s="11">
         <f>SUM(F25:F30)</f>
         <v>423000</v>
@@ -2375,10 +2375,10 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="29"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:6" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -2386,24 +2386,24 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="32"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:6" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="1:6" ht="1.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
@@ -2414,22 +2414,22 @@
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:6" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -2587,39 +2587,39 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
       <c r="F31" s="11">
         <f>SUM(F25:F30)</f>
         <v>95000</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="11">
         <f>F31*15%</f>
         <v>14250</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
       <c r="F33" s="21">
         <f>F32+F31</f>
         <v>109250</v>

--- a/Completed Projects/Burhani Mehal/017 Quotation for Air conditioing workd Hall area Burhani mehal.xlsx
+++ b/Completed Projects/Burhani Mehal/017 Quotation for Air conditioing workd Hall area Burhani mehal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Completed Projects\Burhani Mehal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4897BB74-AF36-48C4-9F15-7CB5E9C32F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF2A8FE-6CDC-4753-AEB1-50AE2C653C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Labour" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Combined!$A$1:$H$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Combined!$A$1:$H$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Labour!$A$1:$F$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Material!$A$1:$F$39</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Combined!$18:$21</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
   <si>
     <t>S. #</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Grand Amount Rs</t>
   </si>
   <si>
-    <t>09 Aug 2024</t>
-  </si>
-  <si>
     <t>SFT</t>
   </si>
   <si>
@@ -171,8 +168,29 @@
     <t>Removal of existing ducted split AC units.</t>
   </si>
   <si>
+    <t>Supply and installation of return air grill diffuser 24 x 24.</t>
+  </si>
+  <si>
+    <t>Supply, Installation &amp; Commissioning of U-PVC piping condensate drain 01" dia with 10 mm thick rubber foam insulation.</t>
+  </si>
+  <si>
+    <t>Lot</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Supply and installation Flexbile duct connector for supply air ducts.</t>
+  </si>
+  <si>
+    <t>Labor Rate</t>
+  </si>
+  <si>
+    <t>Labor Amount</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Installation, of </t>
+      <t xml:space="preserve">Removal &amp; reinstallation of </t>
     </r>
     <r>
       <rPr>
@@ -193,49 +211,36 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  ducted split AC units 8.0 TR</t>
+      <t xml:space="preserve">  ducted split AC units 8.0 TR at new location including regging, liftings and shifting.</t>
     </r>
   </si>
   <si>
-    <t>Supply and installation of return air grill diffuser 24 x 24.</t>
-  </si>
-  <si>
-    <t>Supply, Installation, testing and Commissioning of Refrigerant piping (Liquid + Gas-3/8+7/8) make Muller USA with expanded rubber foam Insulation protected with Grey Tape, Gas Charging if required. Control wiring with 4x4 mm² PVC insulated copper cable in P.V.C. Conduit between internal and external units,
-complete in all respect</t>
-  </si>
-  <si>
-    <t>Supply, Installation &amp; Commissioning of U-PVC piping condensate drain 01" dia with 10 mm thick rubber foam insulation.</t>
-  </si>
-  <si>
-    <t>Supply &amp; installation of M.S Frame with antirust enamel of 2 costs &amp; final grey paint, for ducted split A/C outdoor units including antivibration isolator.</t>
-  </si>
-  <si>
-    <t>Lot</t>
-  </si>
-  <si>
-    <t>Job</t>
-  </si>
-  <si>
-    <t>Supply and installation of control wire 4 core 2.5 mm flexible with UPVc conduit.</t>
-  </si>
-  <si>
-    <t>Fabricated duct will be take from Nadir Burhani, and cutted,   fabrication   with new related accessories and glue and  installation.</t>
+    <t>Fabricated duct will be take from Nadir Burhani, and cutted,  fabrication with new related accessories and glue and  installation.</t>
   </si>
   <si>
     <t>Supply and installation of diffuser
-12 x 12</t>
-  </si>
-  <si>
-    <t>Supply and installation Flexbile duct connector for supply air ducts.</t>
-  </si>
-  <si>
-    <t>Testing, commissioning and freon charged.</t>
-  </si>
-  <si>
-    <t>Labor Rate</t>
-  </si>
-  <si>
-    <t>Labor Amount</t>
+12 x 12.</t>
+  </si>
+  <si>
+    <t>Removal of existing copper pipe.</t>
+  </si>
+  <si>
+    <t>Supply, Installation, testing and Commissioning of Refrigerant piping (Liquid + Gas-3/8+7/8) make Muller USA with expanded rubber foam Insulation.</t>
+  </si>
+  <si>
+    <t>Reinstallation of copper pipe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supply and installation of new foam insulation for existing copper piping. 3/8 + 3/4. </t>
+  </si>
+  <si>
+    <t>Supply &amp; installation of M.S Channel with antirust enamel of 2 costs &amp; final grey paint, for ducted split A/C outdoor units including antivibration isolator.</t>
+  </si>
+  <si>
+    <t>Testing, commissioning and OFM freon charged.</t>
+  </si>
+  <si>
+    <t>17 Aug 2024</t>
   </si>
 </sst>
 </file>
@@ -740,13 +745,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57978</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>57978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>526745</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>31969</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -776,7 +781,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57978" y="12589565"/>
+          <a:off x="57978" y="12208565"/>
           <a:ext cx="742093" cy="545491"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1396,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:H47"/>
+  <dimension ref="A7:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,7 +1439,7 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="H12" s="5" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1455,7 +1460,7 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="G14" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" s="33"/>
     </row>
@@ -1489,7 +1494,7 @@
     </row>
     <row r="18" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -1527,13 +1532,13 @@
         <v>8</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>10</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1541,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>7</v>
@@ -1564,12 +1569,12 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>2</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>17</v>
@@ -1581,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="16">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="G23" s="17">
         <f t="shared" ref="G23:G26" si="0">E23*D23</f>
@@ -1589,7 +1594,7 @@
       </c>
       <c r="H23" s="17">
         <f t="shared" ref="H23:H26" si="1">F23*D23</f>
-        <v>15000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
@@ -1597,10 +1602,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="14">
         <v>740</v>
@@ -1625,7 +1630,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>7</v>
@@ -1653,7 +1658,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>7</v>
@@ -1676,88 +1681,88 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="4" customFormat="1" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>6</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="14">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E27" s="16">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="F27" s="16">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="G27" s="17">
-        <f t="shared" ref="G27:G29" si="2">E27*D27</f>
-        <v>315000</v>
+        <f t="shared" ref="G27:G28" si="2">E27*D27</f>
+        <v>0</v>
       </c>
       <c r="H27" s="17">
-        <f t="shared" ref="H27:H29" si="3">F27*D27</f>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H27:H28" si="3">F27*D27</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>7</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="14">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E28" s="16">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F28" s="16">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G28" s="17">
-        <f t="shared" ref="G28" si="4">E28*D28</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="17">
+        <f t="shared" si="3"/>
         <v>30000</v>
       </c>
-      <c r="H28" s="17">
-        <f t="shared" ref="H28" si="5">F28*D28</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>8</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="14">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E29" s="16">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F29" s="16">
         <v>100</v>
       </c>
       <c r="G29" s="17">
-        <f t="shared" si="2"/>
-        <v>32000</v>
+        <f t="shared" ref="G29" si="4">E29*D29</f>
+        <v>12000</v>
       </c>
       <c r="H29" s="17">
-        <f t="shared" si="3"/>
-        <v>8000</v>
+        <f t="shared" ref="H29" si="5">F29*D29</f>
+        <v>6000</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
@@ -1765,66 +1770,66 @@
         <v>9</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="D30" s="14">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E30" s="16">
+        <v>4200</v>
+      </c>
+      <c r="F30" s="16">
+        <v>600</v>
+      </c>
+      <c r="G30" s="17">
+        <f t="shared" ref="G30:G31" si="6">E30*D30</f>
+        <v>105000</v>
+      </c>
+      <c r="H30" s="17">
+        <f t="shared" ref="H30:H31" si="7">F30*D30</f>
         <v>15000</v>
       </c>
-      <c r="F30" s="16">
-        <v>5000</v>
-      </c>
-      <c r="G30" s="17">
-        <f t="shared" ref="G30:G33" si="6">E30*D30</f>
-        <v>15000</v>
-      </c>
-      <c r="H30" s="17">
-        <f t="shared" ref="H30:H33" si="7">F30*D30</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>10</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D31" s="14">
         <v>1</v>
       </c>
       <c r="E31" s="16">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="F31" s="16">
         <v>5000</v>
       </c>
       <c r="G31" s="17">
         <f t="shared" si="6"/>
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="H31" s="17">
         <f t="shared" si="7"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="4" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>11</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D32" s="14">
         <v>1</v>
@@ -1833,15 +1838,15 @@
         <v>15000</v>
       </c>
       <c r="F32" s="16">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G32" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G32:G35" si="8">E32*D32</f>
         <v>15000</v>
       </c>
       <c r="H32" s="17">
-        <f t="shared" si="7"/>
-        <v>3000</v>
+        <f t="shared" ref="H32:H35" si="9">F32*D32</f>
+        <v>5000</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
@@ -1849,158 +1854,214 @@
         <v>12</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D33" s="14">
         <v>1</v>
       </c>
       <c r="E33" s="16">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="F33" s="16">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="G33" s="17">
-        <f t="shared" si="6"/>
-        <v>30000</v>
+        <f t="shared" si="8"/>
+        <v>20000</v>
       </c>
       <c r="H33" s="17">
-        <f t="shared" si="7"/>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="27">
-        <f>SUM(G22:G33)</f>
-        <v>830200</v>
-      </c>
-      <c r="H34" s="27">
-        <f>SUM(H22:H33)</f>
-        <v>238000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="11">
-        <v>0</v>
-      </c>
-      <c r="H35" s="11">
-        <f>H34*15%</f>
-        <v>35700</v>
+        <f t="shared" si="9"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>13</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="14">
+        <v>1</v>
+      </c>
+      <c r="E34" s="16">
+        <v>12000</v>
+      </c>
+      <c r="F34" s="16">
+        <v>3000</v>
+      </c>
+      <c r="G34" s="17">
+        <f t="shared" si="8"/>
+        <v>12000</v>
+      </c>
+      <c r="H34" s="17">
+        <f t="shared" si="9"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <v>14</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="14">
+        <v>1</v>
+      </c>
+      <c r="E35" s="16">
+        <v>15000</v>
+      </c>
+      <c r="F35" s="16">
+        <v>15000</v>
+      </c>
+      <c r="G35" s="17">
+        <f t="shared" si="8"/>
+        <v>15000</v>
+      </c>
+      <c r="H35" s="17">
+        <f t="shared" si="9"/>
+        <v>15000</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
-      <c r="G36" s="11">
-        <f>G35+G34</f>
-        <v>830200</v>
-      </c>
-      <c r="H36" s="11">
-        <f>H35+H34</f>
-        <v>273700</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
+      <c r="G36" s="27">
+        <f>SUM(G22:G35)</f>
+        <v>562200</v>
+      </c>
+      <c r="H36" s="27">
+        <f>SUM(H22:H35)</f>
+        <v>238000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>23</v>
+      </c>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
-      <c r="G37" s="29">
-        <f>G36+H36</f>
-        <v>1103900</v>
-      </c>
-      <c r="H37" s="29"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="G37" s="11">
+        <v>0</v>
+      </c>
+      <c r="H37" s="11">
+        <f>H36*15%</f>
+        <v>35700</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="11">
+        <f>G37+G36</f>
+        <v>562200</v>
+      </c>
+      <c r="H38" s="11">
+        <f>H37+H36</f>
+        <v>273700</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="8" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="29">
+        <f>G38+H38</f>
+        <v>835900</v>
+      </c>
+      <c r="H39" s="29"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="22"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G41" s="24"/>
-      <c r="H41" s="22"/>
-    </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="23"/>
       <c r="H42" s="22"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G45" s="25"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H46" s="26"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G43" s="24"/>
+      <c r="H43" s="22"/>
+    </row>
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="22"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H47" s="26"/>
+      <c r="G47" s="25"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H48" s="26"/>
+    </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H49" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="G39:H39"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A18:H19"/>
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A36:F36"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="29" max="7" man="1"/>
+    <brk id="31" max="7" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
